--- a/artfynd/A 19456-2022.xlsx
+++ b/artfynd/A 19456-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100768833</v>
+        <v>100768707</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469534.9132575904</v>
+        <v>469578.1168790989</v>
       </c>
       <c r="R2" t="n">
-        <v>6763967.385034604</v>
+        <v>6764133.84049964</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100769199</v>
+        <v>100768802</v>
       </c>
       <c r="B3" t="n">
         <v>77506</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469541.3961674463</v>
+        <v>469555.5921681043</v>
       </c>
       <c r="R3" t="n">
-        <v>6763930.471120937</v>
+        <v>6763999.70026769</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100768935</v>
+        <v>100767960</v>
       </c>
       <c r="B4" t="n">
-        <v>77541</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>185</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469641.9180180128</v>
+        <v>469528.0248573373</v>
       </c>
       <c r="R4" t="n">
-        <v>6763983.925178406</v>
+        <v>6764126.511947335</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100768707</v>
+        <v>100768610</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>77532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469578.1168790989</v>
+        <v>469650.1505462511</v>
       </c>
       <c r="R5" t="n">
-        <v>6764133.84049964</v>
+        <v>6764037.685952713</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,22 +1120,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100768802</v>
+        <v>100768509</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,28 +1144,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1173,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469555.5921681043</v>
+        <v>469628.7484296216</v>
       </c>
       <c r="R6" t="n">
-        <v>6763999.70026769</v>
+        <v>6764147.469448376</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1217,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1227,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100768909</v>
+        <v>100768163</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>89673</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1270,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469653.6289010374</v>
+        <v>469584.3490487284</v>
       </c>
       <c r="R7" t="n">
-        <v>6763990.12942613</v>
+        <v>6764180.826841336</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1330,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1340,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1346,22 +1355,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100767960</v>
+        <v>100767987</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>77541</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1379,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>185</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1408,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469528.0248573373</v>
+        <v>469544.1149571119</v>
       </c>
       <c r="R8" t="n">
-        <v>6764126.511947335</v>
+        <v>6764133.647801457</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1434,7 +1443,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1453,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1459,22 +1468,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100768887</v>
+        <v>100768478</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1496,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1521,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469524.0733490811</v>
+        <v>469639.5373261548</v>
       </c>
       <c r="R9" t="n">
-        <v>6763949.534242298</v>
+        <v>6764159.500626029</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1547,7 +1556,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1566,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1593,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100768610</v>
+        <v>100768545</v>
       </c>
       <c r="B10" t="n">
-        <v>77532</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1605,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>469650.1505462511</v>
+        <v>469617.8720968588</v>
       </c>
       <c r="R10" t="n">
-        <v>6764037.685952713</v>
+        <v>6764125.255046165</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1669,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1679,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1685,19 +1694,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100768771</v>
+        <v>100768325</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1738,10 +1747,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>469512.687712927</v>
+        <v>469593.5102718021</v>
       </c>
       <c r="R11" t="n">
-        <v>6763981.155513871</v>
+        <v>6764172.989058495</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1773,7 +1782,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1792,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1819,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100769174</v>
+        <v>100767921</v>
       </c>
       <c r="B12" t="n">
-        <v>93868</v>
+        <v>90653</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,36 +1835,35 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2869</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Mora, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>469523.8062809251</v>
+        <v>469516.8917095423</v>
       </c>
       <c r="R12" t="n">
-        <v>6763918.497962457</v>
+        <v>6764130.972320845</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1887,7 +1895,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1897,7 +1905,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1924,7 +1932,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100768509</v>
+        <v>100768833</v>
       </c>
       <c r="B13" t="n">
         <v>90653</v>
@@ -1957,16 +1965,7 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1974,10 +1973,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>469628.7484296216</v>
+        <v>469534.9132575904</v>
       </c>
       <c r="R13" t="n">
-        <v>6764147.469448376</v>
+        <v>6763967.385034604</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2009,7 +2008,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2019,7 +2018,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2046,10 +2045,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100768163</v>
+        <v>100769199</v>
       </c>
       <c r="B14" t="n">
-        <v>89673</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2062,21 +2061,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2087,10 +2086,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>469584.3490487284</v>
+        <v>469541.3961674463</v>
       </c>
       <c r="R14" t="n">
-        <v>6764180.826841336</v>
+        <v>6763930.471120937</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2122,7 +2121,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2132,7 +2131,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2159,7 +2158,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100767987</v>
+        <v>100768935</v>
       </c>
       <c r="B15" t="n">
         <v>77541</v>
@@ -2200,13 +2199,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>469544.1149571119</v>
+        <v>469641.9180180128</v>
       </c>
       <c r="R15" t="n">
-        <v>6764133.647801457</v>
+        <v>6763983.925178406</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2235,7 +2234,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2245,7 +2244,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2260,19 +2259,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100769367</v>
+        <v>100768909</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2313,10 +2312,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>469591.3909987866</v>
+        <v>469653.6289010374</v>
       </c>
       <c r="R16" t="n">
-        <v>6763926.161686488</v>
+        <v>6763990.12942613</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2348,7 +2347,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2358,7 +2357,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2373,22 +2372,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100769293</v>
+        <v>100768887</v>
       </c>
       <c r="B17" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2397,25 +2396,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2426,10 +2425,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>469590.8011938119</v>
+        <v>469524.0733490811</v>
       </c>
       <c r="R17" t="n">
-        <v>6763914.04226313</v>
+        <v>6763949.534242298</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2461,7 +2460,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2471,7 +2470,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2498,10 +2497,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100768478</v>
+        <v>100768771</v>
       </c>
       <c r="B18" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2514,21 +2513,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2539,10 +2538,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>469639.5373261548</v>
+        <v>469512.687712927</v>
       </c>
       <c r="R18" t="n">
-        <v>6764159.500626029</v>
+        <v>6763981.155513871</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2574,7 +2573,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2584,7 +2583,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2611,10 +2610,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100768839</v>
+        <v>100769174</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>93868</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2623,39 +2622,40 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Mora, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>469534.9132575904</v>
+        <v>469523.8062809251</v>
       </c>
       <c r="R19" t="n">
-        <v>6763967.385034604</v>
+        <v>6763918.497962457</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2724,7 +2724,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100769409</v>
+        <v>100769367</v>
       </c>
       <c r="B20" t="n">
         <v>77506</v>
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>469625.0838766379</v>
+        <v>469591.3909987866</v>
       </c>
       <c r="R20" t="n">
-        <v>6763946.7265804</v>
+        <v>6763926.161686488</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2837,10 +2837,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100768882</v>
+        <v>100769293</v>
       </c>
       <c r="B21" t="n">
-        <v>77532</v>
+        <v>90653</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2853,21 +2853,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6434</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>469654.6086149034</v>
+        <v>469590.8011938119</v>
       </c>
       <c r="R21" t="n">
-        <v>6763991.090970905</v>
+        <v>6763914.04226313</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2938,19 +2938,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>100768545</v>
+        <v>100768839</v>
       </c>
       <c r="B22" t="n">
         <v>77506</v>
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>469617.8720968588</v>
+        <v>469534.9132575904</v>
       </c>
       <c r="R22" t="n">
-        <v>6764125.255046165</v>
+        <v>6763967.385034604</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3063,7 +3063,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>100769171</v>
+        <v>100769409</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>469523.8062809251</v>
+        <v>469625.0838766379</v>
       </c>
       <c r="R23" t="n">
-        <v>6763918.497962457</v>
+        <v>6763946.7265804</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>100768325</v>
+        <v>100768882</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>77532</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3188,25 +3188,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3217,10 +3217,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>469593.5102718021</v>
+        <v>469654.6086149034</v>
       </c>
       <c r="R24" t="n">
-        <v>6764172.989058495</v>
+        <v>6763991.090970905</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3277,22 +3277,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>100769044</v>
+        <v>100769171</v>
       </c>
       <c r="B25" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3301,25 +3301,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>469482.6001783914</v>
+        <v>469523.8062809251</v>
       </c>
       <c r="R25" t="n">
-        <v>6763928.067388847</v>
+        <v>6763918.497962457</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3402,7 +3402,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>100767921</v>
+        <v>100769044</v>
       </c>
       <c r="B26" t="n">
         <v>90653</v>
@@ -3443,10 +3443,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>469516.8917095423</v>
+        <v>469482.6001783914</v>
       </c>
       <c r="R26" t="n">
-        <v>6764130.972320845</v>
+        <v>6763928.067388847</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 19456-2022.xlsx
+++ b/artfynd/A 19456-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100768707</v>
+        <v>100768833</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469578.1168790989</v>
+        <v>469534.9132575904</v>
       </c>
       <c r="R2" t="n">
-        <v>6764133.84049964</v>
+        <v>6763967.385034604</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100768802</v>
+        <v>100769199</v>
       </c>
       <c r="B3" t="n">
         <v>77506</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469555.5921681043</v>
+        <v>469541.3961674463</v>
       </c>
       <c r="R3" t="n">
-        <v>6763999.70026769</v>
+        <v>6763930.471120937</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100767960</v>
+        <v>100768935</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>77541</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>185</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469528.0248573373</v>
+        <v>469641.9180180128</v>
       </c>
       <c r="R4" t="n">
-        <v>6764126.511947335</v>
+        <v>6763983.925178406</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100768610</v>
+        <v>100768707</v>
       </c>
       <c r="B5" t="n">
-        <v>77532</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469650.1505462511</v>
+        <v>469578.1168790989</v>
       </c>
       <c r="R5" t="n">
-        <v>6764037.685952713</v>
+        <v>6764133.84049964</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,22 +1120,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100768509</v>
+        <v>100768802</v>
       </c>
       <c r="B6" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,37 +1144,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1182,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469628.7484296216</v>
+        <v>469555.5921681043</v>
       </c>
       <c r="R6" t="n">
-        <v>6764147.469448376</v>
+        <v>6763999.70026769</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1217,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1227,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100768163</v>
+        <v>100768909</v>
       </c>
       <c r="B7" t="n">
-        <v>89673</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1295,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469584.3490487284</v>
+        <v>469653.6289010374</v>
       </c>
       <c r="R7" t="n">
-        <v>6764180.826841336</v>
+        <v>6763990.12942613</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1330,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1340,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1355,22 +1346,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100767987</v>
+        <v>100767960</v>
       </c>
       <c r="B8" t="n">
-        <v>77541</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>185</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1408,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469544.1149571119</v>
+        <v>469528.0248573373</v>
       </c>
       <c r="R8" t="n">
-        <v>6764133.647801457</v>
+        <v>6764126.511947335</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1443,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1453,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1468,22 +1459,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100768478</v>
+        <v>100768887</v>
       </c>
       <c r="B9" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1521,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469639.5373261548</v>
+        <v>469524.0733490811</v>
       </c>
       <c r="R9" t="n">
-        <v>6764159.500626029</v>
+        <v>6763949.534242298</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1556,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1566,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:42</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1593,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100768545</v>
+        <v>100768610</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>77532</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6434</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>469617.8720968588</v>
+        <v>469650.1505462511</v>
       </c>
       <c r="R10" t="n">
-        <v>6764125.255046165</v>
+        <v>6764037.685952713</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1669,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1679,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1694,19 +1685,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100768325</v>
+        <v>100768771</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1747,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>469593.5102718021</v>
+        <v>469512.687712927</v>
       </c>
       <c r="R11" t="n">
-        <v>6764172.989058495</v>
+        <v>6763981.155513871</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1782,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1792,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1819,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100767921</v>
+        <v>100769174</v>
       </c>
       <c r="B12" t="n">
-        <v>90653</v>
+        <v>93868</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1835,35 +1826,36 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>2869</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Mora, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>469516.8917095423</v>
+        <v>469523.8062809251</v>
       </c>
       <c r="R12" t="n">
-        <v>6764130.972320845</v>
+        <v>6763918.497962457</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1895,7 +1887,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1905,7 +1897,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1932,7 +1924,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100768833</v>
+        <v>100768509</v>
       </c>
       <c r="B13" t="n">
         <v>90653</v>
@@ -1965,7 +1957,16 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1973,10 +1974,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>469534.9132575904</v>
+        <v>469628.7484296216</v>
       </c>
       <c r="R13" t="n">
-        <v>6763967.385034604</v>
+        <v>6764147.469448376</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2008,7 +2009,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2018,7 +2019,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2045,10 +2046,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100769199</v>
+        <v>100768163</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>89673</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2061,21 +2062,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2086,10 +2087,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>469541.3961674463</v>
+        <v>469584.3490487284</v>
       </c>
       <c r="R14" t="n">
-        <v>6763930.471120937</v>
+        <v>6764180.826841336</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2121,7 +2122,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2131,7 +2132,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2158,7 +2159,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100768935</v>
+        <v>100767987</v>
       </c>
       <c r="B15" t="n">
         <v>77541</v>
@@ -2199,13 +2200,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>469641.9180180128</v>
+        <v>469544.1149571119</v>
       </c>
       <c r="R15" t="n">
-        <v>6763983.925178406</v>
+        <v>6764133.647801457</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2234,7 +2235,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2244,7 +2245,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2259,19 +2260,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100768909</v>
+        <v>100769367</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2312,10 +2313,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>469653.6289010374</v>
+        <v>469591.3909987866</v>
       </c>
       <c r="R16" t="n">
-        <v>6763990.12942613</v>
+        <v>6763926.161686488</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2347,7 +2348,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2357,7 +2358,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:43</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2372,22 +2373,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100768887</v>
+        <v>100769293</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2396,25 +2397,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2425,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>469524.0733490811</v>
+        <v>469590.8011938119</v>
       </c>
       <c r="R17" t="n">
-        <v>6763949.534242298</v>
+        <v>6763914.04226313</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2460,7 +2461,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2470,7 +2471,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:42</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2497,10 +2498,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100768771</v>
+        <v>100768478</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2513,21 +2514,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2538,10 +2539,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>469512.687712927</v>
+        <v>469639.5373261548</v>
       </c>
       <c r="R18" t="n">
-        <v>6763981.155513871</v>
+        <v>6764159.500626029</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2573,7 +2574,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2583,7 +2584,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2610,10 +2611,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100769174</v>
+        <v>100768839</v>
       </c>
       <c r="B19" t="n">
-        <v>93868</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2622,40 +2623,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Mora, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>469523.8062809251</v>
+        <v>469534.9132575904</v>
       </c>
       <c r="R19" t="n">
-        <v>6763918.497962457</v>
+        <v>6763967.385034604</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2724,7 +2724,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100769367</v>
+        <v>100769409</v>
       </c>
       <c r="B20" t="n">
         <v>77506</v>
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>469591.3909987866</v>
+        <v>469625.0838766379</v>
       </c>
       <c r="R20" t="n">
-        <v>6763926.161686488</v>
+        <v>6763946.7265804</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2837,10 +2837,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100769293</v>
+        <v>100768882</v>
       </c>
       <c r="B21" t="n">
-        <v>90653</v>
+        <v>77532</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2853,21 +2853,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>6434</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>469590.8011938119</v>
+        <v>469654.6086149034</v>
       </c>
       <c r="R21" t="n">
-        <v>6763914.04226313</v>
+        <v>6763991.090970905</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2938,19 +2938,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>100768839</v>
+        <v>100768545</v>
       </c>
       <c r="B22" t="n">
         <v>77506</v>
@@ -2991,10 +2991,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>469534.9132575904</v>
+        <v>469617.8720968588</v>
       </c>
       <c r="R22" t="n">
-        <v>6763967.385034604</v>
+        <v>6764125.255046165</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3063,7 +3063,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>100769409</v>
+        <v>100769171</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>469625.0838766379</v>
+        <v>469523.8062809251</v>
       </c>
       <c r="R23" t="n">
-        <v>6763946.7265804</v>
+        <v>6763918.497962457</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>100768882</v>
+        <v>100768325</v>
       </c>
       <c r="B24" t="n">
-        <v>77532</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3188,25 +3188,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6434</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3217,10 +3217,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>469654.6086149034</v>
+        <v>469593.5102718021</v>
       </c>
       <c r="R24" t="n">
-        <v>6763991.090970905</v>
+        <v>6764172.989058495</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3277,22 +3277,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>100769171</v>
+        <v>100769044</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3301,25 +3301,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>469523.8062809251</v>
+        <v>469482.6001783914</v>
       </c>
       <c r="R25" t="n">
-        <v>6763918.497962457</v>
+        <v>6763928.067388847</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3402,7 +3402,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>100769044</v>
+        <v>100767921</v>
       </c>
       <c r="B26" t="n">
         <v>90653</v>
@@ -3443,10 +3443,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>469482.6001783914</v>
+        <v>469516.8917095423</v>
       </c>
       <c r="R26" t="n">
-        <v>6763928.067388847</v>
+        <v>6764130.972320845</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="AD26" t="b">
